--- a/backend/data/synthetic/invoices.xlsx
+++ b/backend/data/synthetic/invoices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J516"/>
+  <dimension ref="A1:J519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23145,6 +23145,138 @@
         </is>
       </c>
     </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>CIRC-TEST-001</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>CT/2024/001</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>21CTGDC7550C4ZW</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>29WTEKH2713J6ZG</t>
+        </is>
+      </c>
+      <c r="F517" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G517" t="n">
+        <v>18</v>
+      </c>
+      <c r="H517" t="n">
+        <v>18000</v>
+      </c>
+      <c r="I517" t="n">
+        <v>118000</v>
+      </c>
+      <c r="J517" t="inlineStr">
+        <is>
+          <t>CIRC001IRN</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>CIRC-TEST-002</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>CT/2024/002</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>29WTEKH2713J6ZG</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>21QWPSB2202C5ZT</t>
+        </is>
+      </c>
+      <c r="F518" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G518" t="n">
+        <v>18</v>
+      </c>
+      <c r="H518" t="n">
+        <v>18000</v>
+      </c>
+      <c r="I518" t="n">
+        <v>118000</v>
+      </c>
+      <c r="J518" t="inlineStr">
+        <is>
+          <t>CIRC002IRN</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>CIRC-TEST-003</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>CT/2024/003</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>2024-03-10</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>21QWPSB2202C5ZT</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>21CTGDC7550C4ZW</t>
+        </is>
+      </c>
+      <c r="F519" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G519" t="n">
+        <v>18</v>
+      </c>
+      <c r="H519" t="n">
+        <v>18000</v>
+      </c>
+      <c r="I519" t="n">
+        <v>118000</v>
+      </c>
+      <c r="J519" t="inlineStr">
+        <is>
+          <t>CIRC003IRN</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
